--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_64ha_100ha_14%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1166.509980979762</v>
+        <v>1270.110394525564</v>
       </c>
       <c r="AB2" t="n">
-        <v>1596.07041876481</v>
+        <v>1737.82107510585</v>
       </c>
       <c r="AC2" t="n">
-        <v>1443.743698096798</v>
+        <v>1571.965870744945</v>
       </c>
       <c r="AD2" t="n">
-        <v>1166509.980979762</v>
+        <v>1270110.394525564</v>
       </c>
       <c r="AE2" t="n">
-        <v>1596070.41876481</v>
+        <v>1737821.07510585</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.283596229980258e-06</v>
+        <v>1.850515006987834e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.67838541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1443743.698096798</v>
+        <v>1571965.870744945</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>569.6919037858654</v>
+        <v>630.1255678628009</v>
       </c>
       <c r="AB3" t="n">
-        <v>779.4775957928167</v>
+        <v>862.1656011279717</v>
       </c>
       <c r="AC3" t="n">
-        <v>705.0853480540261</v>
+        <v>779.8817262133383</v>
       </c>
       <c r="AD3" t="n">
-        <v>569691.9037858654</v>
+        <v>630125.5678628009</v>
       </c>
       <c r="AE3" t="n">
-        <v>779477.5957928167</v>
+        <v>862165.6011279718</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.013998710860063e-06</v>
+        <v>2.903510271729311e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.09114583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>705085.3480540261</v>
+        <v>779881.7262133383</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>454.7027879350716</v>
+        <v>514.9657703028639</v>
       </c>
       <c r="AB4" t="n">
-        <v>622.1444145240009</v>
+        <v>704.5988856147607</v>
       </c>
       <c r="AC4" t="n">
-        <v>562.7678247869995</v>
+        <v>637.3529568824341</v>
       </c>
       <c r="AD4" t="n">
-        <v>454702.7879350716</v>
+        <v>514965.770302864</v>
       </c>
       <c r="AE4" t="n">
-        <v>622144.414524001</v>
+        <v>704598.8856147607</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.296430962510505e-06</v>
+        <v>3.310682798361417e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.23567708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>562767.8247869995</v>
+        <v>637352.9568824341</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>408.7948657475765</v>
+        <v>469.1430994613893</v>
       </c>
       <c r="AB5" t="n">
-        <v>559.3311700724826</v>
+        <v>641.9022858158916</v>
       </c>
       <c r="AC5" t="n">
-        <v>505.9493882269917</v>
+        <v>580.6400325731386</v>
       </c>
       <c r="AD5" t="n">
-        <v>408794.8657475765</v>
+        <v>469143.0994613893</v>
       </c>
       <c r="AE5" t="n">
-        <v>559331.1700724825</v>
+        <v>641902.2858158916</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.408376836801044e-06</v>
+        <v>3.472071181644688e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.62044270833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>505949.3882269917</v>
+        <v>580640.0325731386</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>376.0393976152382</v>
+        <v>427.7543530421186</v>
       </c>
       <c r="AB6" t="n">
-        <v>514.5136935045513</v>
+        <v>585.272377022422</v>
       </c>
       <c r="AC6" t="n">
-        <v>465.4092287209804</v>
+        <v>529.4148027943414</v>
       </c>
       <c r="AD6" t="n">
-        <v>376039.3976152382</v>
+        <v>427754.3530421186</v>
       </c>
       <c r="AE6" t="n">
-        <v>514513.6935045513</v>
+        <v>585272.377022422</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.510892741697635e-06</v>
+        <v>3.619864713625532e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.10286458333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>465409.2287209803</v>
+        <v>529414.8027943415</v>
       </c>
     </row>
     <row r="7">
@@ -2882,28 +2882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>377.2528157897986</v>
+        <v>428.967771216679</v>
       </c>
       <c r="AB7" t="n">
-        <v>516.1739457832167</v>
+        <v>586.9326293010874</v>
       </c>
       <c r="AC7" t="n">
-        <v>466.9110288523487</v>
+        <v>530.9166029257098</v>
       </c>
       <c r="AD7" t="n">
-        <v>377252.8157897986</v>
+        <v>428967.771216679</v>
       </c>
       <c r="AE7" t="n">
-        <v>516173.9457832167</v>
+        <v>586932.6293010875</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.510706009630428e-06</v>
+        <v>3.619595508649246e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.10611979166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>466911.0288523487</v>
+        <v>530916.6029257098</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>812.6157977025307</v>
+        <v>905.0367750984209</v>
       </c>
       <c r="AB2" t="n">
-        <v>1111.856784495426</v>
+        <v>1238.311243094243</v>
       </c>
       <c r="AC2" t="n">
-        <v>1005.74273348398</v>
+        <v>1120.128556034073</v>
       </c>
       <c r="AD2" t="n">
-        <v>812615.7977025307</v>
+        <v>905036.7750984209</v>
       </c>
       <c r="AE2" t="n">
-        <v>1111856.784495426</v>
+        <v>1238311.243094243</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.581303626162563e-06</v>
+        <v>2.314969021715417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.8828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1005742.73348398</v>
+        <v>1120128.556034073</v>
       </c>
     </row>
     <row r="3">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>449.1829566013193</v>
+        <v>516.3516633322004</v>
       </c>
       <c r="AB3" t="n">
-        <v>614.5919377753893</v>
+        <v>706.4951255987842</v>
       </c>
       <c r="AC3" t="n">
-        <v>555.9361458193075</v>
+        <v>639.0682223837717</v>
       </c>
       <c r="AD3" t="n">
-        <v>449182.9566013194</v>
+        <v>516351.6633322004</v>
       </c>
       <c r="AE3" t="n">
-        <v>614591.9377753893</v>
+        <v>706495.1255987842</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.26194414983515e-06</v>
+        <v>3.311401143388306e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.89973958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>555936.1458193075</v>
+        <v>639068.2223837718</v>
       </c>
     </row>
     <row r="4">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>362.3384289444488</v>
+        <v>412.7577189284464</v>
       </c>
       <c r="AB4" t="n">
-        <v>495.7674237250991</v>
+        <v>564.7533206232923</v>
       </c>
       <c r="AC4" t="n">
-        <v>448.4520766187241</v>
+        <v>510.8540563392684</v>
       </c>
       <c r="AD4" t="n">
-        <v>362338.4289444488</v>
+        <v>412757.7189284464</v>
       </c>
       <c r="AE4" t="n">
-        <v>495767.4237250991</v>
+        <v>564753.3206232924</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.538179696550575e-06</v>
+        <v>3.715799592087676e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.38606770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>448452.0766187241</v>
+        <v>510854.0563392683</v>
       </c>
     </row>
     <row r="5">
@@ -3497,28 +3497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>350.8584272463951</v>
+        <v>401.2777172303927</v>
       </c>
       <c r="AB5" t="n">
-        <v>480.0599789398914</v>
+        <v>549.0458758380848</v>
       </c>
       <c r="AC5" t="n">
-        <v>434.2437283182796</v>
+        <v>496.6457080388237</v>
       </c>
       <c r="AD5" t="n">
-        <v>350858.4272463951</v>
+        <v>401277.7172303927</v>
       </c>
       <c r="AE5" t="n">
-        <v>480059.9789398914</v>
+        <v>549045.8758380848</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.574109634794678e-06</v>
+        <v>3.768399670030391e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.21354166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>434243.7283182796</v>
+        <v>496645.7080388237</v>
       </c>
     </row>
   </sheetData>
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.0795870250786</v>
+        <v>374.4506081647575</v>
       </c>
       <c r="AB2" t="n">
-        <v>437.9470118824888</v>
+        <v>512.33984168596</v>
       </c>
       <c r="AC2" t="n">
-        <v>396.149963730915</v>
+        <v>463.4428462689352</v>
       </c>
       <c r="AD2" t="n">
-        <v>320079.5870250786</v>
+        <v>374450.6081647575</v>
       </c>
       <c r="AE2" t="n">
-        <v>437947.0118824888</v>
+        <v>512339.84168596</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.57443920484566e-06</v>
+        <v>3.982975220431975e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.62630208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>396149.963730915</v>
+        <v>463442.8462689352</v>
       </c>
     </row>
     <row r="3">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>307.6470170674006</v>
+        <v>361.8474460064873</v>
       </c>
       <c r="AB3" t="n">
-        <v>420.9362211801176</v>
+        <v>495.0956392087416</v>
       </c>
       <c r="AC3" t="n">
-        <v>380.7626590183833</v>
+        <v>447.8444062737523</v>
       </c>
       <c r="AD3" t="n">
-        <v>307647.0170674006</v>
+        <v>361847.4460064873</v>
       </c>
       <c r="AE3" t="n">
-        <v>420936.2211801176</v>
+        <v>495095.6392087416</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.645463420360094e-06</v>
+        <v>4.092858448558767e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.26171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>380762.6590183833</v>
+        <v>447844.4062737523</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>461.7443890364012</v>
+        <v>525.9161131303579</v>
       </c>
       <c r="AB2" t="n">
-        <v>631.7790438043558</v>
+        <v>719.5816277663682</v>
       </c>
       <c r="AC2" t="n">
-        <v>571.4829385711244</v>
+        <v>650.9057671515029</v>
       </c>
       <c r="AD2" t="n">
-        <v>461744.3890364012</v>
+        <v>525916.1131303578</v>
       </c>
       <c r="AE2" t="n">
-        <v>631779.0438043558</v>
+        <v>719581.6277663682</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.159856834041218e-06</v>
+        <v>3.264178605979174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.54036458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>571482.9385711243</v>
+        <v>650905.7671515029</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>315.4402782316455</v>
+        <v>371.505195959286</v>
       </c>
       <c r="AB3" t="n">
-        <v>431.5993049194548</v>
+        <v>508.3097987640182</v>
       </c>
       <c r="AC3" t="n">
-        <v>390.4080730113703</v>
+        <v>459.7974249872627</v>
       </c>
       <c r="AD3" t="n">
-        <v>315440.2782316455</v>
+        <v>371505.1959592859</v>
       </c>
       <c r="AE3" t="n">
-        <v>431599.3049194548</v>
+        <v>508309.7987640182</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.6472371688948e-06</v>
+        <v>4.000753566379381e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.67903645833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>390408.0730113703</v>
+        <v>459797.4249872627</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>316.9179912271068</v>
+        <v>372.9829089547473</v>
       </c>
       <c r="AB4" t="n">
-        <v>433.6211770319414</v>
+        <v>510.3316708765046</v>
       </c>
       <c r="AC4" t="n">
-        <v>392.2369804871564</v>
+        <v>461.6263324630489</v>
       </c>
       <c r="AD4" t="n">
-        <v>316917.9912271068</v>
+        <v>372982.9089547473</v>
       </c>
       <c r="AE4" t="n">
-        <v>433621.1770319414</v>
+        <v>510331.6708765046</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.646721640721695e-06</v>
+        <v>3.999974451760807e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.68229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>392236.9804871564</v>
+        <v>461626.3324630489</v>
       </c>
     </row>
   </sheetData>
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.3605218786728</v>
+        <v>358.1869519926403</v>
       </c>
       <c r="AB2" t="n">
-        <v>417.8077375898518</v>
+        <v>490.0871898093976</v>
       </c>
       <c r="AC2" t="n">
-        <v>377.9327535111182</v>
+        <v>443.313956255679</v>
       </c>
       <c r="AD2" t="n">
-        <v>305360.5218786728</v>
+        <v>358186.9519926403</v>
       </c>
       <c r="AE2" t="n">
-        <v>417807.7375898518</v>
+        <v>490087.1898093976</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.587358547729043e-06</v>
+        <v>4.089289111395846e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.08203125</v>
       </c>
       <c r="AH2" t="n">
-        <v>377932.7535111182</v>
+        <v>443313.956255679</v>
       </c>
     </row>
   </sheetData>
@@ -5003,28 +5003,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>890.5628342419395</v>
+        <v>983.6935025642114</v>
       </c>
       <c r="AB2" t="n">
-        <v>1218.5073586692</v>
+        <v>1345.932847702846</v>
       </c>
       <c r="AC2" t="n">
-        <v>1102.21472654363</v>
+        <v>1217.478905746702</v>
       </c>
       <c r="AD2" t="n">
-        <v>890562.8342419395</v>
+        <v>983693.5025642114</v>
       </c>
       <c r="AE2" t="n">
-        <v>1218507.3586692</v>
+        <v>1345932.847702846</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.501436182210714e-06</v>
+        <v>2.188923223716097e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.751953125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1102214.72654363</v>
+        <v>1217478.905746702</v>
       </c>
     </row>
     <row r="3">
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>481.4336732542175</v>
+        <v>540.6677004752793</v>
       </c>
       <c r="AB3" t="n">
-        <v>658.7187911010869</v>
+        <v>739.7654003657924</v>
       </c>
       <c r="AC3" t="n">
-        <v>595.8515941960281</v>
+        <v>669.1632288221409</v>
       </c>
       <c r="AD3" t="n">
-        <v>481433.6732542175</v>
+        <v>540667.7004752792</v>
       </c>
       <c r="AE3" t="n">
-        <v>658718.7911010869</v>
+        <v>739765.4003657924</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.199987837047753e-06</v>
+        <v>3.207332103397346e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.16341145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>595851.5941960282</v>
+        <v>669163.228822141</v>
       </c>
     </row>
     <row r="4">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>384.1156997409209</v>
+        <v>443.3496374534316</v>
       </c>
       <c r="AB4" t="n">
-        <v>525.5640463742137</v>
+        <v>606.610533169371</v>
       </c>
       <c r="AC4" t="n">
-        <v>475.40495142203</v>
+        <v>548.7164752669161</v>
       </c>
       <c r="AD4" t="n">
-        <v>384115.699740921</v>
+        <v>443349.6374534316</v>
       </c>
       <c r="AE4" t="n">
-        <v>525564.0463742138</v>
+        <v>606610.5331693711</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.471061869179638e-06</v>
+        <v>3.602527218121558e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.61067708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>475404.95142203</v>
+        <v>548716.4752669161</v>
       </c>
     </row>
     <row r="5">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>357.4870254959532</v>
+        <v>408.2468700645746</v>
       </c>
       <c r="AB5" t="n">
-        <v>489.1295194980526</v>
+        <v>558.5813782031361</v>
       </c>
       <c r="AC5" t="n">
-        <v>442.4476846547499</v>
+        <v>505.2711554413162</v>
       </c>
       <c r="AD5" t="n">
-        <v>357487.0254959532</v>
+        <v>408246.8700645746</v>
       </c>
       <c r="AE5" t="n">
-        <v>489129.5194980525</v>
+        <v>558581.378203136</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.554911040135687e-06</v>
+        <v>3.724769774794725e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.19401041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>442447.6846547499</v>
+        <v>505271.1554413162</v>
       </c>
     </row>
     <row r="6">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>358.7510800109818</v>
+        <v>409.5109245796031</v>
       </c>
       <c r="AB6" t="n">
-        <v>490.8590546516641</v>
+        <v>560.3109133567476</v>
       </c>
       <c r="AC6" t="n">
-        <v>444.0121554007186</v>
+        <v>506.8356261872848</v>
       </c>
       <c r="AD6" t="n">
-        <v>358751.0800109818</v>
+        <v>409510.9245796031</v>
       </c>
       <c r="AE6" t="n">
-        <v>490859.0546516641</v>
+        <v>560310.9133567476</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.554911040135687e-06</v>
+        <v>3.724769774794725e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.19401041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>444012.1554007186</v>
+        <v>506835.6261872848</v>
       </c>
     </row>
   </sheetData>
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.9261371422696</v>
+        <v>361.3236921360484</v>
       </c>
       <c r="AB2" t="n">
-        <v>413.1086608791438</v>
+        <v>494.3790160568171</v>
       </c>
       <c r="AC2" t="n">
-        <v>373.6821500864846</v>
+        <v>447.1961766296607</v>
       </c>
       <c r="AD2" t="n">
-        <v>301926.1371422696</v>
+        <v>361323.6921360484</v>
       </c>
       <c r="AE2" t="n">
-        <v>413108.6608791437</v>
+        <v>494379.0160568171</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.522307329819365e-06</v>
+        <v>4.041328826505528e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.78515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>373682.1500864846</v>
+        <v>447196.1766296607</v>
       </c>
     </row>
   </sheetData>
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>620.7640567396218</v>
+        <v>694.8629721373779</v>
       </c>
       <c r="AB2" t="n">
-        <v>849.3567686085153</v>
+        <v>950.7421736691571</v>
       </c>
       <c r="AC2" t="n">
-        <v>768.2953506922296</v>
+        <v>860.0046749891934</v>
       </c>
       <c r="AD2" t="n">
-        <v>620764.0567396218</v>
+        <v>694862.9721373779</v>
       </c>
       <c r="AE2" t="n">
-        <v>849356.7686085153</v>
+        <v>950742.1736691571</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.843485002091146e-06</v>
+        <v>2.737286164365248e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.57161458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>768295.3506922296</v>
+        <v>860004.6749891934</v>
       </c>
     </row>
     <row r="3">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>374.566333902144</v>
+        <v>423.9657003425324</v>
       </c>
       <c r="AB3" t="n">
-        <v>512.4981827453113</v>
+        <v>580.0885752552875</v>
       </c>
       <c r="AC3" t="n">
-        <v>463.5860754798151</v>
+        <v>524.725735792351</v>
       </c>
       <c r="AD3" t="n">
-        <v>374566.333902144</v>
+        <v>423965.7003425324</v>
       </c>
       <c r="AE3" t="n">
-        <v>512498.1827453113</v>
+        <v>580088.5752552876</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.485644716989616e-06</v>
+        <v>3.690792648502844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.03385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>463586.0754798151</v>
+        <v>524725.735792351</v>
       </c>
     </row>
     <row r="4">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>333.8326291762074</v>
+        <v>383.1466547620243</v>
       </c>
       <c r="AB4" t="n">
-        <v>456.7645308950615</v>
+        <v>524.2381562828399</v>
       </c>
       <c r="AC4" t="n">
-        <v>413.1715651394814</v>
+        <v>474.2056024200784</v>
       </c>
       <c r="AD4" t="n">
-        <v>333832.6291762074</v>
+        <v>383146.6547620243</v>
       </c>
       <c r="AE4" t="n">
-        <v>456764.5308950614</v>
+        <v>524238.1562828399</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.612225711465186e-06</v>
+        <v>3.878745577035777e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.40234375</v>
       </c>
       <c r="AH4" t="n">
-        <v>413171.5651394814</v>
+        <v>474205.6024200784</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>749.594549439284</v>
+        <v>824.8211940426553</v>
       </c>
       <c r="AB2" t="n">
-        <v>1025.628332320402</v>
+        <v>1128.556746232068</v>
       </c>
       <c r="AC2" t="n">
-        <v>927.7438037621479</v>
+        <v>1020.84887431102</v>
       </c>
       <c r="AD2" t="n">
-        <v>749594.549439284</v>
+        <v>824821.1940426553</v>
       </c>
       <c r="AE2" t="n">
-        <v>1025628.332320402</v>
+        <v>1128556.746232068</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.664185765477609e-06</v>
+        <v>2.447089442741811e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.072265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>927743.8037621479</v>
+        <v>1020848.87431102</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>422.8025848452558</v>
+        <v>481.3121276967827</v>
       </c>
       <c r="AB3" t="n">
-        <v>578.4971493188795</v>
+        <v>658.552487107193</v>
       </c>
       <c r="AC3" t="n">
-        <v>523.2861933137333</v>
+        <v>595.7011620219025</v>
       </c>
       <c r="AD3" t="n">
-        <v>422802.5848452558</v>
+        <v>481312.1276967827</v>
       </c>
       <c r="AE3" t="n">
-        <v>578497.1493188795</v>
+        <v>658552.487107193</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.336958309524685e-06</v>
+        <v>3.436362770309101e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.58072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>523286.1933137333</v>
+        <v>595701.1620219025</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>346.1520217299227</v>
+        <v>396.2178071137823</v>
       </c>
       <c r="AB4" t="n">
-        <v>473.6204672802963</v>
+        <v>542.1226835890586</v>
       </c>
       <c r="AC4" t="n">
-        <v>428.4187946135648</v>
+        <v>490.3832555412832</v>
       </c>
       <c r="AD4" t="n">
-        <v>346152.0217299227</v>
+        <v>396217.8071137823</v>
       </c>
       <c r="AE4" t="n">
-        <v>473620.4672802963</v>
+        <v>542122.6835890586</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.587736712899915e-06</v>
+        <v>3.805117987483459e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>428418.7946135648</v>
+        <v>490383.2555412832</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>345.4042217612659</v>
+        <v>395.4700071451255</v>
       </c>
       <c r="AB5" t="n">
-        <v>472.5972943725739</v>
+        <v>541.0995106813361</v>
       </c>
       <c r="AC5" t="n">
-        <v>427.4932718921232</v>
+        <v>489.4577328198416</v>
       </c>
       <c r="AD5" t="n">
-        <v>345404.2217612659</v>
+        <v>395470.0071451255</v>
       </c>
       <c r="AE5" t="n">
-        <v>472597.2943725738</v>
+        <v>541099.5106813362</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.588126725968927e-06</v>
+        <v>3.805691479267556e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.26236979166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>427493.2718921232</v>
+        <v>489457.7328198417</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1068.390820795505</v>
+        <v>1171.289422440884</v>
       </c>
       <c r="AB2" t="n">
-        <v>1461.819455088868</v>
+        <v>1602.609861425993</v>
       </c>
       <c r="AC2" t="n">
-        <v>1322.305457971677</v>
+        <v>1449.659025528563</v>
       </c>
       <c r="AD2" t="n">
-        <v>1068390.820795505</v>
+        <v>1171289.422440884</v>
       </c>
       <c r="AE2" t="n">
-        <v>1461819.455088868</v>
+        <v>1602609.861425993</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.351454136161764e-06</v>
+        <v>1.955246688218136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.66927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1322305.457971677</v>
+        <v>1449659.025528563</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>534.2915083054593</v>
+        <v>602.862129117521</v>
       </c>
       <c r="AB3" t="n">
-        <v>731.0412129412994</v>
+        <v>824.86256145865</v>
       </c>
       <c r="AC3" t="n">
-        <v>661.2716656009675</v>
+        <v>746.1388362949118</v>
       </c>
       <c r="AD3" t="n">
-        <v>534291.5083054593</v>
+        <v>602862.129117521</v>
       </c>
       <c r="AE3" t="n">
-        <v>731041.2129412993</v>
+        <v>824862.56145865</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.071790484224587e-06</v>
+        <v>2.997409512147218e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.78841145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>661271.6656009675</v>
+        <v>746138.8362949118</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>433.5462948212304</v>
+        <v>485.0383555797566</v>
       </c>
       <c r="AB4" t="n">
-        <v>593.1971672870403</v>
+        <v>663.6508764862499</v>
       </c>
       <c r="AC4" t="n">
-        <v>536.5832621986177</v>
+        <v>600.3129682742566</v>
       </c>
       <c r="AD4" t="n">
-        <v>433546.2948212304</v>
+        <v>485038.3555797565</v>
       </c>
       <c r="AE4" t="n">
-        <v>593197.1672870403</v>
+        <v>663650.8764862499</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.354410036515241e-06</v>
+        <v>3.406295710247431e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.01106770833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>536583.2621986177</v>
+        <v>600312.9682742566</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>383.0621979822947</v>
+        <v>434.4689178862492</v>
       </c>
       <c r="AB5" t="n">
-        <v>524.1225987908439</v>
+        <v>594.4595408678559</v>
       </c>
       <c r="AC5" t="n">
-        <v>474.1010735729325</v>
+        <v>537.7251566166326</v>
       </c>
       <c r="AD5" t="n">
-        <v>383062.1979822947</v>
+        <v>434468.9178862492</v>
       </c>
       <c r="AE5" t="n">
-        <v>524122.5987908439</v>
+        <v>594459.5408678559</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.484473380260056e-06</v>
+        <v>3.594467780102408e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.33072916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>474101.0735729325</v>
+        <v>537725.1566166326</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>370.2568116380593</v>
+        <v>421.6635315420139</v>
       </c>
       <c r="AB6" t="n">
-        <v>506.6017042608867</v>
+        <v>576.9386463378987</v>
       </c>
       <c r="AC6" t="n">
-        <v>458.2523486261844</v>
+        <v>521.8764316698846</v>
       </c>
       <c r="AD6" t="n">
-        <v>370256.8116380593</v>
+        <v>421663.5315420139</v>
       </c>
       <c r="AE6" t="n">
-        <v>506601.7042608866</v>
+        <v>576938.6463378987</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.524941714420889e-06</v>
+        <v>3.653016253356851e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.13216145833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>458252.3486261844</v>
+        <v>521876.4316698846</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>514.5308705688158</v>
+        <v>579.2120930883866</v>
       </c>
       <c r="AB2" t="n">
-        <v>704.0038366122138</v>
+        <v>792.5035387976358</v>
       </c>
       <c r="AC2" t="n">
-        <v>636.8146985215337</v>
+        <v>716.8681133404913</v>
       </c>
       <c r="AD2" t="n">
-        <v>514530.8705688157</v>
+        <v>579212.0930883866</v>
       </c>
       <c r="AE2" t="n">
-        <v>704003.8366122139</v>
+        <v>792503.5387976358</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.047402382369949e-06</v>
+        <v>3.074552656343171e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.18815104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>636814.6985215337</v>
+        <v>716868.1133404913</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>323.0336131862824</v>
+        <v>379.6189369641033</v>
       </c>
       <c r="AB3" t="n">
-        <v>441.9888407986845</v>
+        <v>519.4113771597994</v>
       </c>
       <c r="AC3" t="n">
-        <v>399.8060461680915</v>
+        <v>469.8394843221137</v>
       </c>
       <c r="AD3" t="n">
-        <v>323033.6131862824</v>
+        <v>379618.9369641033</v>
       </c>
       <c r="AE3" t="n">
-        <v>441988.8407986845</v>
+        <v>519411.3771597993</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.629378214963645e-06</v>
+        <v>3.948496809889223e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.60416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>399806.0461680915</v>
+        <v>469839.4843221137</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>322.2172816222939</v>
+        <v>378.8026054001147</v>
       </c>
       <c r="AB4" t="n">
-        <v>440.8718999388286</v>
+        <v>518.2944362999433</v>
       </c>
       <c r="AC4" t="n">
-        <v>398.7957045762638</v>
+        <v>468.829142730286</v>
       </c>
       <c r="AD4" t="n">
-        <v>322217.2816222939</v>
+        <v>378802.6054001147</v>
       </c>
       <c r="AE4" t="n">
-        <v>440871.8999388285</v>
+        <v>518294.4362999432</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.639356107124978e-06</v>
+        <v>3.963480457028396e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.55859375</v>
       </c>
       <c r="AH4" t="n">
-        <v>398795.7045762638</v>
+        <v>468829.142730286</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>368.1312370018757</v>
+        <v>423.0533296004182</v>
       </c>
       <c r="AB2" t="n">
-        <v>503.6933992699254</v>
+        <v>578.8402293549703</v>
       </c>
       <c r="AC2" t="n">
-        <v>455.6216081817288</v>
+        <v>523.5965302726955</v>
       </c>
       <c r="AD2" t="n">
-        <v>368131.2370018757</v>
+        <v>423053.3296004182</v>
       </c>
       <c r="AE2" t="n">
-        <v>503693.3992699254</v>
+        <v>578840.2293549704</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.424797542138278e-06</v>
+        <v>3.719025346950986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.23828125</v>
       </c>
       <c r="AH2" t="n">
-        <v>455621.6081817289</v>
+        <v>523596.5302726956</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>312.1685168082511</v>
+        <v>359.3177582692848</v>
       </c>
       <c r="AB3" t="n">
-        <v>427.1227366000396</v>
+        <v>491.6344088447545</v>
       </c>
       <c r="AC3" t="n">
-        <v>386.3587420894569</v>
+        <v>444.7135108778369</v>
       </c>
       <c r="AD3" t="n">
-        <v>312168.5168082511</v>
+        <v>359317.7582692847</v>
       </c>
       <c r="AE3" t="n">
-        <v>427122.7366000396</v>
+        <v>491634.4088447546</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.655579130367858e-06</v>
+        <v>4.072985857599865e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.00130208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>386358.7420894569</v>
+        <v>444713.510877837</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.7054529940428</v>
+        <v>355.3832736246825</v>
       </c>
       <c r="AB2" t="n">
-        <v>412.8067110916423</v>
+        <v>486.2510733767979</v>
       </c>
       <c r="AC2" t="n">
-        <v>373.409017962913</v>
+        <v>439.8439533913833</v>
       </c>
       <c r="AD2" t="n">
-        <v>301705.4529940428</v>
+        <v>355383.2736246826</v>
       </c>
       <c r="AE2" t="n">
-        <v>412806.7110916423</v>
+        <v>486251.073376798</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.62463595015577e-06</v>
+        <v>4.100941900214836e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.60677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>373409.017962913</v>
+        <v>439843.9533913833</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.0058993235869</v>
+        <v>356.6837199542268</v>
       </c>
       <c r="AB3" t="n">
-        <v>414.5860391313674</v>
+        <v>488.0304014165231</v>
       </c>
       <c r="AC3" t="n">
-        <v>375.0185294318294</v>
+        <v>441.4534648602997</v>
       </c>
       <c r="AD3" t="n">
-        <v>303005.8993235869</v>
+        <v>356683.7199542267</v>
       </c>
       <c r="AE3" t="n">
-        <v>414586.0391313675</v>
+        <v>488030.4014165231</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.628256440326532e-06</v>
+        <v>4.10659884469116e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.58723958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>375018.5294318295</v>
+        <v>441453.4648602997</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.4140350355462</v>
+        <v>375.6628329628432</v>
       </c>
       <c r="AB2" t="n">
-        <v>434.2998860545563</v>
+        <v>513.9984611342843</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.8509144732271</v>
+        <v>464.9431694049985</v>
       </c>
       <c r="AD2" t="n">
-        <v>317414.0350355462</v>
+        <v>375662.8329628432</v>
       </c>
       <c r="AE2" t="n">
-        <v>434299.8860545564</v>
+        <v>513998.4611342843</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.385347928138823e-06</v>
+        <v>3.887344587616937e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.07096354166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>392850.9144732271</v>
+        <v>464943.1694049985</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>683.181167818844</v>
+        <v>757.7706772258142</v>
       </c>
       <c r="AB2" t="n">
-        <v>934.7586136357049</v>
+        <v>1036.815271063234</v>
       </c>
       <c r="AC2" t="n">
-        <v>845.5465634922667</v>
+        <v>937.8630767723304</v>
       </c>
       <c r="AD2" t="n">
-        <v>683181.167818844</v>
+        <v>757770.6772258142</v>
       </c>
       <c r="AE2" t="n">
-        <v>934758.613635705</v>
+        <v>1036815.271063234</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.750914487149374e-06</v>
+        <v>2.586767454105563e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.30729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>845546.5634922667</v>
+        <v>937863.0767723303</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>400.3589127205375</v>
+        <v>458.2686899944937</v>
       </c>
       <c r="AB3" t="n">
-        <v>547.7887269729067</v>
+        <v>627.0234390381983</v>
       </c>
       <c r="AC3" t="n">
-        <v>495.5085396969187</v>
+        <v>567.1812020493155</v>
       </c>
       <c r="AD3" t="n">
-        <v>400358.9127205375</v>
+        <v>458268.6899944937</v>
       </c>
       <c r="AE3" t="n">
-        <v>547788.7269729067</v>
+        <v>627023.4390381982</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.402829779890029e-06</v>
+        <v>3.549894593935643e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.33984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>495508.5396969187</v>
+        <v>567181.2020493156</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>340.01693882452</v>
+        <v>389.7148613138266</v>
       </c>
       <c r="AB4" t="n">
-        <v>465.2261761883689</v>
+        <v>533.2250662558382</v>
       </c>
       <c r="AC4" t="n">
-        <v>420.8256428819894</v>
+        <v>482.334814318461</v>
       </c>
       <c r="AD4" t="n">
-        <v>340016.93882452</v>
+        <v>389714.8613138266</v>
       </c>
       <c r="AE4" t="n">
-        <v>465226.1761883689</v>
+        <v>533225.0662558383</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.595647022063172e-06</v>
+        <v>3.834759086350642e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.35026041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>420825.6428819894</v>
+        <v>482334.814318461</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>340.9906233602065</v>
+        <v>390.688545849513</v>
       </c>
       <c r="AB5" t="n">
-        <v>466.5584143260251</v>
+        <v>534.5573043934944</v>
       </c>
       <c r="AC5" t="n">
-        <v>422.0307340815957</v>
+        <v>483.5399055180673</v>
       </c>
       <c r="AD5" t="n">
-        <v>340990.6233602065</v>
+        <v>390688.545849513</v>
       </c>
       <c r="AE5" t="n">
-        <v>466558.4143260251</v>
+        <v>534557.3043934944</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.597222648148346e-06</v>
+        <v>3.837086886084371e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.34375</v>
       </c>
       <c r="AH5" t="n">
-        <v>422030.7340815957</v>
+        <v>483539.9055180673</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>975.9570766725473</v>
+        <v>1069.77588792032</v>
       </c>
       <c r="AB2" t="n">
-        <v>1335.347528490849</v>
+        <v>1463.714565033889</v>
       </c>
       <c r="AC2" t="n">
-        <v>1207.903834543709</v>
+        <v>1324.019701283348</v>
       </c>
       <c r="AD2" t="n">
-        <v>975957.0766725473</v>
+        <v>1069775.88792032</v>
       </c>
       <c r="AE2" t="n">
-        <v>1335347.528490849</v>
+        <v>1463714.565033889</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.424566962648101e-06</v>
+        <v>2.068712003846024e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.68294270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1207903.834543709</v>
+        <v>1324019.701283348</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>507.9085833815716</v>
+        <v>567.5262119204976</v>
       </c>
       <c r="AB3" t="n">
-        <v>694.9429311279349</v>
+        <v>776.5144006390382</v>
       </c>
       <c r="AC3" t="n">
-        <v>628.6185531396137</v>
+        <v>702.4049560868538</v>
       </c>
       <c r="AD3" t="n">
-        <v>507908.5833815716</v>
+        <v>567526.2119204976</v>
       </c>
       <c r="AE3" t="n">
-        <v>694942.9311279349</v>
+        <v>776514.4006390382</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.132959740170622e-06</v>
+        <v>3.097418046259464e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.482421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>628618.5531396137</v>
+        <v>702404.9560868538</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>405.2214555591877</v>
+        <v>464.8389945895625</v>
       </c>
       <c r="AB4" t="n">
-        <v>554.4418726049977</v>
+        <v>636.0132196465526</v>
       </c>
       <c r="AC4" t="n">
-        <v>501.5267184476315</v>
+        <v>575.3130106136451</v>
       </c>
       <c r="AD4" t="n">
-        <v>405221.4555591877</v>
+        <v>464838.9945895625</v>
       </c>
       <c r="AE4" t="n">
-        <v>554441.8726049977</v>
+        <v>636013.2196465526</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.408820129220584e-06</v>
+        <v>3.498013955877129e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.82552083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>501526.7184476315</v>
+        <v>575313.0106136451</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>366.4753513523995</v>
+        <v>417.5639970506187</v>
       </c>
       <c r="AB5" t="n">
-        <v>501.4277434717929</v>
+        <v>571.3294823880746</v>
       </c>
       <c r="AC5" t="n">
-        <v>453.5721833931021</v>
+        <v>516.8025984549206</v>
       </c>
       <c r="AD5" t="n">
-        <v>366475.3513523994</v>
+        <v>417563.9970506187</v>
       </c>
       <c r="AE5" t="n">
-        <v>501427.7434717929</v>
+        <v>571329.4823880745</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.530286004000065e-06</v>
+        <v>3.674402935688141e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.20703125</v>
       </c>
       <c r="AH5" t="n">
-        <v>453572.1833931021</v>
+        <v>516802.5984549206</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>364.4003470590457</v>
+        <v>415.488992757265</v>
       </c>
       <c r="AB6" t="n">
-        <v>498.5886310548976</v>
+        <v>568.4903699711791</v>
       </c>
       <c r="AC6" t="n">
-        <v>451.0040318805561</v>
+        <v>514.2344469423745</v>
       </c>
       <c r="AD6" t="n">
-        <v>364400.3470590457</v>
+        <v>415488.9927572649</v>
       </c>
       <c r="AE6" t="n">
-        <v>498588.6310548976</v>
+        <v>568490.3699711792</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.540155106325898e-06</v>
+        <v>3.688734540297786e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.16145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>451004.0318805561</v>
+        <v>514234.4469423745</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>339.328345394712</v>
+        <v>410.3996442427514</v>
       </c>
       <c r="AB2" t="n">
-        <v>464.2840122791073</v>
+        <v>561.5268988074115</v>
       </c>
       <c r="AC2" t="n">
-        <v>419.9733977738924</v>
+        <v>507.9355596931836</v>
       </c>
       <c r="AD2" t="n">
-        <v>339328.3453947119</v>
+        <v>410399.6442427514</v>
       </c>
       <c r="AE2" t="n">
-        <v>464284.0122791074</v>
+        <v>561526.8988074115</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.109837701284169e-06</v>
+        <v>3.516973745932116e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.81184895833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>419973.3977738924</v>
+        <v>507935.5596931836</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>409.5399986373968</v>
+        <v>472.9949855893522</v>
       </c>
       <c r="AB2" t="n">
-        <v>560.3506937652777</v>
+        <v>647.1726063493932</v>
       </c>
       <c r="AC2" t="n">
-        <v>506.8716100094571</v>
+        <v>585.407361111864</v>
       </c>
       <c r="AD2" t="n">
-        <v>409539.9986373968</v>
+        <v>472994.9855893522</v>
       </c>
       <c r="AE2" t="n">
-        <v>560350.6937652777</v>
+        <v>647172.6063493931</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.287868614635875e-06</v>
+        <v>3.481922394243917e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.86979166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>506871.6100094571</v>
+        <v>585407.361111864</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>309.9597610752657</v>
+        <v>365.4722070514052</v>
       </c>
       <c r="AB3" t="n">
-        <v>424.1006195627433</v>
+        <v>500.0551971835694</v>
       </c>
       <c r="AC3" t="n">
-        <v>383.6250516606323</v>
+        <v>452.3306309962459</v>
       </c>
       <c r="AD3" t="n">
-        <v>309959.7610752657</v>
+        <v>365472.2070514052</v>
       </c>
       <c r="AE3" t="n">
-        <v>424100.6195627433</v>
+        <v>500055.1971835694</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.653555530839381e-06</v>
+        <v>4.038463733491072e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.822265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>383625.0516606322</v>
+        <v>452330.6309962459</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>561.6335875823826</v>
+        <v>635.0442371050916</v>
       </c>
       <c r="AB2" t="n">
-        <v>768.4518520553909</v>
+        <v>868.8955413816457</v>
       </c>
       <c r="AC2" t="n">
-        <v>695.1118858241718</v>
+        <v>785.9693704147323</v>
       </c>
       <c r="AD2" t="n">
-        <v>561633.5875823826</v>
+        <v>635044.2371050916</v>
       </c>
       <c r="AE2" t="n">
-        <v>768451.8520553908</v>
+        <v>868895.5413816457</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.942517306615551e-06</v>
+        <v>2.900004860367911e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.86197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>695111.8858241718</v>
+        <v>785969.3704147324</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>341.9879690673967</v>
+        <v>399.0661762840434</v>
       </c>
       <c r="AB3" t="n">
-        <v>467.9230267223901</v>
+        <v>546.0199479489889</v>
       </c>
       <c r="AC3" t="n">
-        <v>423.265109786097</v>
+        <v>493.9085704605466</v>
       </c>
       <c r="AD3" t="n">
-        <v>341987.9690673967</v>
+        <v>399066.1762840434</v>
       </c>
       <c r="AE3" t="n">
-        <v>467923.0267223901</v>
+        <v>546019.947948989</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.567886126124262e-06</v>
+        <v>3.833624658719973e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.75716145833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>423265.109786097</v>
+        <v>493908.5704605466</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>326.89518951106</v>
+        <v>375.8072650832266</v>
       </c>
       <c r="AB4" t="n">
-        <v>447.2724198869693</v>
+        <v>514.1960795332885</v>
       </c>
       <c r="AC4" t="n">
-        <v>404.5853678837401</v>
+        <v>465.1219273813608</v>
       </c>
       <c r="AD4" t="n">
-        <v>326895.18951106</v>
+        <v>375807.2650832266</v>
       </c>
       <c r="AE4" t="n">
-        <v>447272.4198869693</v>
+        <v>514196.0795332885</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.631278299300527e-06</v>
+        <v>3.928263511972073e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.44791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>404585.3678837401</v>
+        <v>465121.9273813608</v>
       </c>
     </row>
   </sheetData>
